--- a/css-assignment.xlsx
+++ b/css-assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1627F533-1B85-4757-8724-554AAC0120FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E364185-58D6-4136-9D0E-CCDBAB41BF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Indian Premier League</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>7. On click of contactus.html it should display google map of BCCI mumbai along with logo,title and menu in a table format</t>
+  </si>
+  <si>
+    <t>8. create style.css and all styling should be done in that file</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:H16"/>
+  <dimension ref="D2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +513,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/css-assignment.xlsx
+++ b/css-assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E364185-58D6-4136-9D0E-CCDBAB41BF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FB2FFD-9494-46A3-9711-1A4E9A616A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Indian Premier League</t>
   </si>
@@ -77,6 +77,39 @@
   </si>
   <si>
     <t>8. create style.css and all styling should be done in that file</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>&lt;text box&gt;</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>&lt;Sign Up&gt;</t>
+  </si>
+  <si>
+    <t>&lt;textbox&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Login&gt;</t>
   </si>
 </sst>
 </file>
@@ -430,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:H17"/>
+  <dimension ref="D2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +478,7 @@
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
@@ -453,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -469,8 +502,14 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -478,44 +517,120 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
